--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Plan-Contrataciones.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Plan-Contrataciones.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="97">
   <si>
     <t/>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Agregar contrataciones en la hoja PAC</t>
+  </si>
+  <si>
+    <t>TMv3/Administracion-de-Proyectos/ Planeacion-del-proyecto/TMv3-Plan-Contrataciones.xlsx</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,6 +912,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -920,6 +926,12 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,6 +961,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="21" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -961,20 +979,8 @@
     <xf numFmtId="4" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1387,8 +1393,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A4:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1453,11 +1459,13 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
     </row>
@@ -1476,10 +1484,10 @@
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
     </row>
@@ -1522,10 +1530,10 @@
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
@@ -1568,12 +1576,12 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
@@ -1651,7 +1659,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1724,9 +1732,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>47</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1799,8 +1810,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1827,10 +1838,10 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="89"/>
+      <c r="C1" s="92"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1853,8 +1864,8 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
@@ -1870,8 +1881,8 @@
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -1886,25 +1897,25 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -1932,20 +1943,20 @@
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="51"/>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,23 +1985,23 @@
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="51"/>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="49"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="92">
+      <c r="L8" s="95"/>
+      <c r="M8" s="97">
         <v>42171</v>
       </c>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="6"/>
     </row>
@@ -2020,23 +2031,23 @@
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="51"/>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="49"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="93" t="s">
+      <c r="L10" s="96"/>
+      <c r="M10" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="6"/>
     </row>
@@ -2057,74 +2068,74 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94" t="s">
+      <c r="F12" s="76"/>
+      <c r="G12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="96" t="s">
+      <c r="K12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="96" t="s">
+      <c r="L12" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="94" t="s">
+      <c r="N12" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="94" t="s">
+      <c r="O12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="94" t="s">
+      <c r="P12" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="94" t="s">
+      <c r="Q12" s="81" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
@@ -2160,7 +2171,9 @@
       <c r="K14" s="44">
         <v>1</v>
       </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="55">
+        <v>11067</v>
+      </c>
       <c r="M14" s="40" t="s">
         <v>63</v>
       </c>
@@ -2209,7 +2222,9 @@
       <c r="K15" s="44">
         <v>1</v>
       </c>
-      <c r="L15" s="55"/>
+      <c r="L15" s="55">
+        <v>5160</v>
+      </c>
       <c r="M15" s="40" t="s">
         <v>63</v>
       </c>
@@ -2258,7 +2273,9 @@
       <c r="K16" s="44">
         <v>1</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="55">
+        <v>6386</v>
+      </c>
       <c r="M16" s="40" t="s">
         <v>63</v>
       </c>
@@ -2309,7 +2326,9 @@
       <c r="K17" s="44">
         <v>1</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="55">
+        <v>4536</v>
+      </c>
       <c r="M17" s="40" t="s">
         <v>63</v>
       </c>
@@ -2360,7 +2379,9 @@
       <c r="K18" s="44">
         <v>1</v>
       </c>
-      <c r="L18" s="55"/>
+      <c r="L18" s="55">
+        <v>3666</v>
+      </c>
       <c r="M18" s="40" t="s">
         <v>63</v>
       </c>
@@ -2411,7 +2432,9 @@
       <c r="K19" s="44">
         <v>1</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="55">
+        <v>400</v>
+      </c>
       <c r="M19" s="40" t="s">
         <v>63</v>
       </c>
@@ -2829,22 +2852,22 @@
     </row>
     <row r="29" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J30" s="79" t="s">
+      <c r="J30" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="79"/>
+      <c r="K30" s="80"/>
       <c r="L30" s="56">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J31" s="79" t="s">
+      <c r="J31" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="79"/>
+      <c r="K31" s="80"/>
       <c r="L31" s="57">
         <f>SUM(L14:L27)</f>
-        <v>12090</v>
+        <v>43305</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
